--- a/references/filter_choice.xlsx
+++ b/references/filter_choice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="filter_wheel_mounting" sheetId="1" state="visible" r:id="rId3"/>
@@ -495,25 +495,7 @@
     <t xml:space="preserve">09/13/2022 /  2022-04-26</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">09/13/2022/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2022-04-26</t>
-    </r>
+    <t xml:space="preserve">09/13/2022/ 2022-04-26</t>
   </si>
   <si>
     <t xml:space="preserve">BUMP in OOB may be due to spectrograph</t>
@@ -703,7 +685,7 @@
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -883,12 +865,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1245,72 +1221,68 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="141">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1318,7 +1290,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1326,531 +1298,491 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="16" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="16" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1935,14 +1867,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>628560</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>276120</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>218520</xdr:rowOff>
+      <xdr:colOff>608760</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1952,7 +1884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11483280" y="14925600"/>
-          <a:ext cx="2779560" cy="2628360"/>
+          <a:ext cx="2779200" cy="2628000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1988,14 +1920,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>857160</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>229320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1094760</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:colOff>1094400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>447480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2005,7 +1937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11711880" y="15725880"/>
-          <a:ext cx="237600" cy="218520"/>
+          <a:ext cx="237240" cy="218160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2015,9 +1947,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2059,14 +1989,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1085760</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1399320</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:colOff>1398960</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2076,7 +2006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11940480" y="15392160"/>
-          <a:ext cx="313560" cy="218880"/>
+          <a:ext cx="313200" cy="218520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2086,9 +2016,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2130,14 +2058,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>219240</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>276840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:colOff>456480</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>495000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2147,7 +2075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13872960" y="15773400"/>
-          <a:ext cx="237600" cy="218520"/>
+          <a:ext cx="237240" cy="218160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2157,9 +2085,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2201,14 +2127,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1238400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:colOff>151920</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2218,7 +2144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13492800" y="15411600"/>
-          <a:ext cx="313200" cy="218520"/>
+          <a:ext cx="312840" cy="218160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2228,9 +2154,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2272,14 +2196,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>942840</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>314280</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1180440</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:colOff>1180080</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2289,7 +2213,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13197240" y="17078400"/>
-          <a:ext cx="237600" cy="218520"/>
+          <a:ext cx="237240" cy="218160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2299,9 +2223,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2343,14 +2265,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>85680</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>324000</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:colOff>322920</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2360,7 +2282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12340080" y="17088120"/>
-          <a:ext cx="237600" cy="218520"/>
+          <a:ext cx="237240" cy="218160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2370,9 +2292,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2414,14 +2334,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>552600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>790200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:colOff>789840</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2431,7 +2351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12807000" y="17230680"/>
-          <a:ext cx="237600" cy="218520"/>
+          <a:ext cx="237240" cy="218160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2441,9 +2361,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2485,14 +2403,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1209600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:colOff>94320</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2502,7 +2420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12064320" y="16164000"/>
-          <a:ext cx="1684080" cy="257040"/>
+          <a:ext cx="1683720" cy="256680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2512,9 +2430,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2566,7 +2482,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
@@ -2578,7 +2494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="627480" y="190440"/>
-          <a:ext cx="3638880" cy="318240"/>
+          <a:ext cx="3638520" cy="318240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2630,9 +2546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>582120</xdr:colOff>
+      <xdr:colOff>581760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2642,7 +2558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2237040" y="851040"/>
-          <a:ext cx="6294600" cy="5893560"/>
+          <a:ext cx="6294240" cy="5893200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2681,9 +2597,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>374040</xdr:colOff>
+      <xdr:colOff>373680</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2693,7 +2609,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7150680" y="3021840"/>
-          <a:ext cx="1172880" cy="1168920"/>
+          <a:ext cx="1172520" cy="1168560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2732,9 +2648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>525960</xdr:colOff>
+      <xdr:colOff>525600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2744,7 +2660,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2410560" y="3021840"/>
-          <a:ext cx="1172880" cy="1168920"/>
+          <a:ext cx="1172520" cy="1168560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2783,9 +2699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>394560</xdr:colOff>
+      <xdr:colOff>394200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2795,7 +2711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4771080" y="1013040"/>
-          <a:ext cx="1127160" cy="1122840"/>
+          <a:ext cx="1126800" cy="1122480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2834,9 +2750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>394560</xdr:colOff>
+      <xdr:colOff>394200</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2846,7 +2762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4635000" y="5218920"/>
-          <a:ext cx="1263240" cy="1258920"/>
+          <a:ext cx="1262880" cy="1258560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2885,9 +2801,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>327600</xdr:colOff>
+      <xdr:colOff>327240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2897,7 +2813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6492600" y="1624320"/>
-          <a:ext cx="1173240" cy="1169280"/>
+          <a:ext cx="1172880" cy="1168920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2936,9 +2852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>327960</xdr:colOff>
+      <xdr:colOff>327600</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2948,7 +2864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6483960" y="4582440"/>
-          <a:ext cx="1182240" cy="1177920"/>
+          <a:ext cx="1181880" cy="1177560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2987,9 +2903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>501120</xdr:colOff>
+      <xdr:colOff>500760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2999,7 +2915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2997360" y="4591440"/>
-          <a:ext cx="1172880" cy="1169280"/>
+          <a:ext cx="1172520" cy="1168920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3038,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>595440</xdr:colOff>
+      <xdr:colOff>595080</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3050,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3093480" y="1685880"/>
-          <a:ext cx="1171080" cy="1169280"/>
+          <a:ext cx="1170720" cy="1168920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3089,7 +3005,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>399960</xdr:colOff>
+      <xdr:colOff>399600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
@@ -3101,7 +3017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="627480" y="520560"/>
-          <a:ext cx="3441600" cy="318240"/>
+          <a:ext cx="3441240" cy="318240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3153,7 +3069,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>470520</xdr:colOff>
+      <xdr:colOff>470160</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
@@ -3165,7 +3081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="627480" y="768600"/>
-          <a:ext cx="1065960" cy="318240"/>
+          <a:ext cx="1065600" cy="318240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3217,7 +3133,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>292680</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
@@ -3229,7 +3145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="611640" y="1059480"/>
-          <a:ext cx="2127240" cy="318240"/>
+          <a:ext cx="2126880" cy="318240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3281,7 +3197,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
@@ -3293,7 +3209,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="611640" y="1346040"/>
-          <a:ext cx="1938600" cy="546840"/>
+          <a:ext cx="1938240" cy="546840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3364,7 +3280,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>477000</xdr:colOff>
+      <xdr:colOff>476640</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>165240</xdr:rowOff>
     </xdr:to>
@@ -3376,7 +3292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2832480" y="3073320"/>
-          <a:ext cx="702000" cy="901800"/>
+          <a:ext cx="701640" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3485,7 +3401,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>380160</xdr:colOff>
+      <xdr:colOff>379800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
@@ -3497,7 +3413,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3346920" y="4637160"/>
-          <a:ext cx="702360" cy="901800"/>
+          <a:ext cx="702000" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3606,7 +3522,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390240</xdr:colOff>
+      <xdr:colOff>389880</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
@@ -3618,7 +3534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4968720" y="5262480"/>
-          <a:ext cx="925200" cy="901800"/>
+          <a:ext cx="924840" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3727,7 +3643,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>215280</xdr:colOff>
+      <xdr:colOff>214920</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
@@ -3739,7 +3655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6851160" y="4637160"/>
-          <a:ext cx="702360" cy="901800"/>
+          <a:ext cx="702000" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3848,7 +3764,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>279720</xdr:colOff>
+      <xdr:colOff>279360</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
@@ -3860,7 +3776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7554240" y="3067920"/>
-          <a:ext cx="675000" cy="901800"/>
+          <a:ext cx="674640" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3969,7 +3885,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>363600</xdr:colOff>
+      <xdr:colOff>363240</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
@@ -3981,7 +3897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5185440" y="993240"/>
-          <a:ext cx="681840" cy="901800"/>
+          <a:ext cx="681480" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4090,7 +4006,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>444600</xdr:colOff>
+      <xdr:colOff>444240</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
@@ -4102,7 +4018,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3438360" y="1740240"/>
-          <a:ext cx="675360" cy="901800"/>
+          <a:ext cx="675000" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4211,7 +4127,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
+      <xdr:colOff>322920</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
@@ -4223,7 +4139,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6896160" y="1626480"/>
-          <a:ext cx="765360" cy="901800"/>
+          <a:ext cx="765000" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4332,7 +4248,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>286560</xdr:colOff>
+      <xdr:colOff>286200</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
@@ -4344,7 +4260,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4838760" y="3285000"/>
-          <a:ext cx="951480" cy="496080"/>
+          <a:ext cx="951120" cy="496080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4396,7 +4312,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
+      <xdr:colOff>329760</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
@@ -4408,7 +4324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1412640" y="3435480"/>
-          <a:ext cx="752040" cy="318240"/>
+          <a:ext cx="751680" cy="318240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4460,7 +4376,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>578520</xdr:colOff>
+      <xdr:colOff>578160</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
@@ -4472,7 +4388,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8805600" y="0"/>
-          <a:ext cx="2779920" cy="318240"/>
+          <a:ext cx="2779560" cy="318240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4524,9 +4440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>201240</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4536,7 +4452,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10417320" y="660600"/>
-          <a:ext cx="6294600" cy="5893560"/>
+          <a:ext cx="6294240" cy="5893200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4575,9 +4491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>602640</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4587,7 +4503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15330960" y="2831040"/>
-          <a:ext cx="1170720" cy="1169280"/>
+          <a:ext cx="1170360" cy="1168920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4626,9 +4542,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>144720</xdr:colOff>
+      <xdr:colOff>144360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4638,7 +4554,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10590480" y="2831040"/>
-          <a:ext cx="1172880" cy="1169280"/>
+          <a:ext cx="1172520" cy="1168920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4677,9 +4593,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4689,7 +4605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12951360" y="822600"/>
-          <a:ext cx="1126800" cy="1122840"/>
+          <a:ext cx="1126440" cy="1122480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4728,9 +4644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4740,7 +4656,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12813480" y="5028120"/>
-          <a:ext cx="1264680" cy="1259280"/>
+          <a:ext cx="1264320" cy="1258920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4779,9 +4695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>556200</xdr:colOff>
+      <xdr:colOff>555840</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4791,7 +4707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14670720" y="1433880"/>
-          <a:ext cx="1173240" cy="1169280"/>
+          <a:ext cx="1172880" cy="1168920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4830,9 +4746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>556560</xdr:colOff>
+      <xdr:colOff>556200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4842,7 +4758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14662080" y="4392000"/>
-          <a:ext cx="1182240" cy="1177920"/>
+          <a:ext cx="1181880" cy="1177560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4881,9 +4797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>119880</xdr:colOff>
+      <xdr:colOff>119520</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4893,7 +4809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11176920" y="4401000"/>
-          <a:ext cx="1173240" cy="1169280"/>
+          <a:ext cx="1172880" cy="1168920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4932,9 +4848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>214560</xdr:colOff>
+      <xdr:colOff>214200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4944,7 +4860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11271600" y="1495440"/>
-          <a:ext cx="1173240" cy="1169280"/>
+          <a:ext cx="1172880" cy="1168920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4983,7 +4899,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>550800</xdr:colOff>
+      <xdr:colOff>550440</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
@@ -4995,7 +4911,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16921080" y="3330000"/>
-          <a:ext cx="752040" cy="318240"/>
+          <a:ext cx="751680" cy="318240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5047,7 +4963,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>371160</xdr:colOff>
+      <xdr:colOff>370800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
@@ -5059,7 +4975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8805600" y="330120"/>
-          <a:ext cx="3184200" cy="318240"/>
+          <a:ext cx="3183840" cy="318240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5111,7 +5027,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
@@ -5123,7 +5039,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8805600" y="578160"/>
-          <a:ext cx="1068120" cy="318240"/>
+          <a:ext cx="1067760" cy="318240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5175,7 +5091,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>521280</xdr:colOff>
+      <xdr:colOff>520920</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
@@ -5187,7 +5103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8789760" y="869040"/>
-          <a:ext cx="2127240" cy="318240"/>
+          <a:ext cx="2126880" cy="318240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5239,7 +5155,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>332640</xdr:colOff>
+      <xdr:colOff>332280</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
@@ -5251,7 +5167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8789760" y="1155600"/>
-          <a:ext cx="1938600" cy="546840"/>
+          <a:ext cx="1938240" cy="546840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5322,7 +5238,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>483840</xdr:colOff>
+      <xdr:colOff>483480</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
@@ -5334,7 +5250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15707880" y="2853720"/>
-          <a:ext cx="675000" cy="901800"/>
+          <a:ext cx="674640" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5443,7 +5359,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>393120</xdr:colOff>
+      <xdr:colOff>392760</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
@@ -5455,7 +5371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14978520" y="4446720"/>
-          <a:ext cx="702360" cy="901800"/>
+          <a:ext cx="702000" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5564,7 +5480,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>494640</xdr:colOff>
+      <xdr:colOff>494280</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
@@ -5576,7 +5492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13245480" y="5119200"/>
-          <a:ext cx="702360" cy="901800"/>
+          <a:ext cx="702000" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5685,7 +5601,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>550080</xdr:colOff>
+      <xdr:colOff>549720</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
@@ -5697,7 +5613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11466360" y="4446720"/>
-          <a:ext cx="702360" cy="901800"/>
+          <a:ext cx="702000" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5806,7 +5722,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>591840</xdr:colOff>
+      <xdr:colOff>591480</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
@@ -5818,7 +5734,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10917360" y="2886120"/>
-          <a:ext cx="681480" cy="901800"/>
+          <a:ext cx="681120" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5927,7 +5843,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>513000</xdr:colOff>
+      <xdr:colOff>512640</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
@@ -5939,7 +5855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13284360" y="852480"/>
-          <a:ext cx="681840" cy="901800"/>
+          <a:ext cx="681480" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6048,7 +5964,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>412560</xdr:colOff>
+      <xdr:colOff>412200</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
@@ -6060,7 +5976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15018480" y="1461240"/>
-          <a:ext cx="681840" cy="901800"/>
+          <a:ext cx="681480" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6169,7 +6085,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
@@ -6181,7 +6097,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11629440" y="1541160"/>
-          <a:ext cx="765360" cy="901800"/>
+          <a:ext cx="765000" cy="901800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6290,7 +6206,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
@@ -6302,7 +6218,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13122000" y="3194640"/>
-          <a:ext cx="951120" cy="496080"/>
+          <a:ext cx="950760" cy="496080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6547,7 +6463,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1026" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6636,7 +6552,7 @@
       </c>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" s="7" customFormat="true" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="7" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -6678,7 +6594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="7" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -6717,7 +6633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="true" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="7" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
@@ -6761,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="true" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="7" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -6802,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -6846,7 +6762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
@@ -6905,7 +6821,7 @@
       </c>
     </row>
     <row r="10" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="7" customFormat="true" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="7" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>62</v>
       </c>
@@ -6975,11 +6891,11 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="7" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
@@ -6996,7 +6912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="7" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
@@ -7013,7 +6929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="true" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="7" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
         <v>83</v>
       </c>
@@ -7030,7 +6946,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="7" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>86</v>
       </c>
@@ -7047,7 +6963,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="true" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="7" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>90</v>
       </c>
@@ -7068,526 +6984,526 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="str">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="str">
         <f aca="false">A20</f>
         <v>NB8_2</v>
       </c>
-      <c r="B27" s="18" t="n">
+      <c r="B27" s="17" t="n">
         <f aca="false">B20</f>
         <v>0</v>
       </c>
-      <c r="C27" s="18" t="n">
+      <c r="C27" s="17" t="n">
         <f aca="false">C20</f>
         <v>0</v>
       </c>
-      <c r="D27" s="18" t="n">
+      <c r="D27" s="17" t="n">
         <f aca="false">D20</f>
         <v>0</v>
       </c>
-      <c r="E27" s="18" t="n">
+      <c r="E27" s="17" t="n">
         <f aca="false">E20</f>
         <v>0</v>
       </c>
-      <c r="F27" s="18" t="n">
+      <c r="F27" s="17" t="n">
         <f aca="false">F20</f>
         <v>0</v>
       </c>
-      <c r="G27" s="18" t="n">
+      <c r="G27" s="17" t="n">
         <f aca="false">G20</f>
         <v>0</v>
       </c>
-      <c r="H27" s="18" t="str">
+      <c r="H27" s="17" t="str">
         <f aca="false">H20</f>
         <v>FW1_1</v>
       </c>
-      <c r="I27" s="18" t="str">
+      <c r="I27" s="17" t="str">
         <f aca="false">I20</f>
         <v>Mounted. All torqued at 20Ncm. Bolts potted in a semicircle around bolt head.</v>
       </c>
-      <c r="J27" s="18" t="n">
+      <c r="J27" s="17" t="n">
         <f aca="false">J20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="str">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="str">
         <f aca="false">A11</f>
         <v>BB1_5</v>
       </c>
-      <c r="B28" s="18" t="str">
+      <c r="B28" s="17" t="str">
         <f aca="false">B11</f>
         <v>BB1</v>
       </c>
-      <c r="C28" s="18" t="str">
+      <c r="C28" s="17" t="str">
         <f aca="false">C11</f>
         <v>200–242</v>
       </c>
-      <c r="D28" s="18" t="n">
+      <c r="D28" s="17" t="n">
         <f aca="false">D11</f>
         <v>0</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18" t="n">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17" t="n">
         <f aca="false">F11</f>
         <v>4</v>
       </c>
-      <c r="G28" s="18" t="n">
+      <c r="G28" s="17" t="n">
         <f aca="false">G11</f>
         <v>0</v>
       </c>
-      <c r="H28" s="18" t="str">
+      <c r="H28" s="17" t="str">
         <f aca="false">H11</f>
         <v>FW1_2</v>
       </c>
-      <c r="I28" s="18" t="str">
+      <c r="I28" s="17" t="str">
         <f aca="false">I11</f>
         <v>Mounted. All torqued at 12Ncm with glue under bolt head.</v>
       </c>
-      <c r="J28" s="18" t="str">
+      <c r="J28" s="17" t="str">
         <f aca="false">J11</f>
         <v>BB1_1 cracked, BB1_2 cracked. Cracking at 20Ncm.</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="str">
+      <c r="A29" s="18" t="str">
         <f aca="false">A18</f>
         <v>BP4_4</v>
       </c>
-      <c r="B29" s="19" t="n">
+      <c r="B29" s="18" t="n">
         <f aca="false">B18</f>
         <v>0</v>
       </c>
-      <c r="C29" s="19" t="n">
+      <c r="C29" s="18" t="n">
         <f aca="false">C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="19" t="n">
+      <c r="D29" s="18" t="n">
         <f aca="false">D18</f>
         <v>0</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19" t="n">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="n">
         <f aca="false">F18</f>
         <v>4</v>
       </c>
-      <c r="G29" s="19" t="n">
+      <c r="G29" s="18" t="n">
         <f aca="false">G18</f>
         <v>0</v>
       </c>
-      <c r="H29" s="19" t="str">
+      <c r="H29" s="18" t="str">
         <f aca="false">H18</f>
         <v>FW1_3</v>
       </c>
-      <c r="I29" s="19" t="str">
+      <c r="I29" s="18" t="str">
         <f aca="false">I18</f>
         <v>Mounted. All torqued.</v>
       </c>
-      <c r="J29" s="19" t="n">
+      <c r="J29" s="18" t="n">
         <f aca="false">J18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="str">
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="str">
         <f aca="false">A5</f>
         <v>NB4_2</v>
       </c>
-      <c r="B30" s="18" t="str">
+      <c r="B30" s="17" t="str">
         <f aca="false">B5</f>
         <v>BP2</v>
       </c>
-      <c r="C30" s="18" t="str">
+      <c r="C30" s="17" t="str">
         <f aca="false">C5</f>
         <v>278.62–281.98</v>
       </c>
-      <c r="D30" s="18" t="n">
+      <c r="D30" s="17" t="n">
         <f aca="false">D5</f>
         <v>280.3</v>
       </c>
-      <c r="E30" s="18" t="n">
+      <c r="E30" s="17" t="n">
         <f aca="false">E5</f>
         <v>5</v>
       </c>
-      <c r="F30" s="18" t="n">
+      <c r="F30" s="17" t="n">
         <f aca="false">F5</f>
         <v>5</v>
       </c>
-      <c r="G30" s="18" t="n">
+      <c r="G30" s="17" t="n">
         <f aca="false">G5</f>
         <v>0</v>
       </c>
-      <c r="H30" s="18" t="str">
+      <c r="H30" s="17" t="str">
         <f aca="false">H5</f>
         <v>FW1_4 (HOME)</v>
       </c>
-      <c r="I30" s="18" t="str">
+      <c r="I30" s="17" t="str">
         <f aca="false">I5</f>
         <v>Mounted. All torqued at 20Ncm. Slight crack like appearance on the side. Bolts potted in a semicircle around bolt head.</v>
       </c>
-      <c r="J30" s="18" t="str">
+      <c r="J30" s="17" t="str">
         <f aca="false">J5</f>
         <v>NB4_1 cracked</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="str">
+      <c r="A31" s="18" t="str">
         <f aca="false">A4</f>
         <v>NB3_3</v>
       </c>
-      <c r="B31" s="19" t="str">
+      <c r="B31" s="18" t="str">
         <f aca="false">B4</f>
         <v>BP2</v>
       </c>
-      <c r="C31" s="19" t="str">
+      <c r="C31" s="18" t="str">
         <f aca="false">C4</f>
         <v>277.595–281.605</v>
       </c>
-      <c r="D31" s="19" t="n">
+      <c r="D31" s="18" t="n">
         <f aca="false">D4</f>
         <v>279.6</v>
       </c>
-      <c r="E31" s="19" t="n">
+      <c r="E31" s="18" t="n">
         <f aca="false">E4</f>
         <v>5</v>
       </c>
-      <c r="F31" s="19" t="n">
+      <c r="F31" s="18" t="n">
         <f aca="false">F4</f>
         <v>5</v>
       </c>
-      <c r="G31" s="19" t="n">
+      <c r="G31" s="18" t="n">
         <f aca="false">G4</f>
         <v>0</v>
       </c>
-      <c r="H31" s="19" t="str">
+      <c r="H31" s="18" t="str">
         <f aca="false">H4</f>
         <v>FW1_5</v>
       </c>
-      <c r="I31" s="19" t="str">
+      <c r="I31" s="18" t="str">
         <f aca="false">I4</f>
         <v>Mounted. All torqued.</v>
       </c>
-      <c r="J31" s="19" t="n">
+      <c r="J31" s="18" t="n">
         <f aca="false">J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="str">
+      <c r="A32" s="17" t="str">
         <f aca="false">A3</f>
         <v>NB2A_7</v>
       </c>
-      <c r="B32" s="18" t="str">
+      <c r="B32" s="17" t="str">
         <f aca="false">B3</f>
         <v>BP2</v>
       </c>
-      <c r="C32" s="18" t="str">
+      <c r="C32" s="17" t="str">
         <f aca="false">C3</f>
         <v>275.94–277.46</v>
       </c>
-      <c r="D32" s="18" t="n">
+      <c r="D32" s="17" t="n">
         <f aca="false">D3</f>
         <v>276.6</v>
       </c>
-      <c r="E32" s="18" t="n">
+      <c r="E32" s="17" t="n">
         <f aca="false">E3</f>
         <v>6</v>
       </c>
-      <c r="F32" s="18" t="n">
+      <c r="F32" s="17" t="n">
         <f aca="false">F3</f>
         <v>6</v>
       </c>
-      <c r="G32" s="18" t="n">
+      <c r="G32" s="17" t="n">
         <f aca="false">G3</f>
         <v>0</v>
       </c>
-      <c r="H32" s="18" t="str">
+      <c r="H32" s="17" t="str">
         <f aca="false">H3</f>
         <v>FW1_6</v>
       </c>
-      <c r="I32" s="18" t="str">
+      <c r="I32" s="17" t="str">
         <f aca="false">I3</f>
         <v>Mounted. All torqued at 12Ncm with glue.</v>
       </c>
-      <c r="J32" s="18" t="str">
+      <c r="J32" s="17" t="str">
         <f aca="false">J3</f>
         <v>NB2A_10 cracked at 20Ncm</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="str">
+      <c r="A33" s="18" t="str">
         <f aca="false">A6</f>
         <v>NB5_4</v>
       </c>
-      <c r="B33" s="19" t="str">
+      <c r="B33" s="18" t="str">
         <f aca="false">B6</f>
         <v>BP2</v>
       </c>
-      <c r="C33" s="19" t="str">
+      <c r="C33" s="18" t="str">
         <f aca="false">C6</f>
         <v>282.25–284.15</v>
       </c>
-      <c r="D33" s="19" t="n">
+      <c r="D33" s="18" t="n">
         <f aca="false">D6</f>
         <v>283.2</v>
       </c>
-      <c r="E33" s="19" t="n">
+      <c r="E33" s="18" t="n">
         <f aca="false">E6</f>
         <v>5</v>
       </c>
-      <c r="F33" s="19" t="n">
+      <c r="F33" s="18" t="n">
         <f aca="false">F6</f>
         <v>5</v>
       </c>
-      <c r="G33" s="19" t="n">
+      <c r="G33" s="18" t="n">
         <f aca="false">G6</f>
         <v>0</v>
       </c>
-      <c r="H33" s="19" t="str">
+      <c r="H33" s="18" t="str">
         <f aca="false">H6</f>
         <v>FW1_7</v>
       </c>
-      <c r="I33" s="19" t="str">
+      <c r="I33" s="18" t="str">
         <f aca="false">I6</f>
         <v>Mounted. All torqued.</v>
       </c>
-      <c r="J33" s="19" t="n">
+      <c r="J33" s="18" t="n">
         <f aca="false">J6</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="str">
+      <c r="A34" s="18" t="str">
         <f aca="false">A17</f>
         <v>BP3_2</v>
       </c>
-      <c r="B34" s="19" t="n">
+      <c r="B34" s="18" t="n">
         <f aca="false">B17</f>
         <v>0</v>
       </c>
-      <c r="C34" s="19" t="n">
+      <c r="C34" s="18" t="n">
         <f aca="false">C17</f>
         <v>0</v>
       </c>
-      <c r="D34" s="19" t="n">
+      <c r="D34" s="18" t="n">
         <f aca="false">D17</f>
         <v>0</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19" t="n">
+      <c r="E34" s="18"/>
+      <c r="F34" s="18" t="n">
         <f aca="false">F17</f>
         <v>5</v>
       </c>
-      <c r="G34" s="19" t="n">
+      <c r="G34" s="18" t="n">
         <f aca="false">G17</f>
         <v>0</v>
       </c>
-      <c r="H34" s="19" t="str">
+      <c r="H34" s="18" t="str">
         <f aca="false">H17</f>
         <v>FW1_8</v>
       </c>
-      <c r="I34" s="19" t="str">
+      <c r="I34" s="18" t="str">
         <f aca="false">I17</f>
         <v>Mounted. All torqued.</v>
       </c>
-      <c r="J34" s="19" t="n">
+      <c r="J34" s="18" t="n">
         <f aca="false">J17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="str">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18" t="str">
         <f aca="false">A7</f>
         <v>NB6_3</v>
       </c>
-      <c r="B37" s="19" t="str">
+      <c r="B37" s="18" t="str">
         <f aca="false">B7</f>
         <v>BP3</v>
       </c>
-      <c r="C37" s="19" t="str">
+      <c r="C37" s="18" t="str">
         <f aca="false">C7</f>
         <v>297.45–302.55</v>
       </c>
-      <c r="D37" s="19" t="n">
+      <c r="D37" s="18" t="n">
         <f aca="false">D7</f>
         <v>300</v>
       </c>
-      <c r="E37" s="19" t="n">
+      <c r="E37" s="18" t="n">
         <f aca="false">E7</f>
         <v>3</v>
       </c>
-      <c r="F37" s="19" t="n">
+      <c r="F37" s="18" t="n">
         <f aca="false">F7</f>
         <v>4</v>
       </c>
-      <c r="G37" s="19" t="str">
+      <c r="G37" s="18" t="str">
         <f aca="false">G7</f>
         <v>2 or 4 may have to be used.</v>
       </c>
-      <c r="H37" s="19" t="str">
+      <c r="H37" s="18" t="str">
         <f aca="false">H7</f>
         <v>FW2_1</v>
       </c>
-      <c r="I37" s="19" t="str">
+      <c r="I37" s="18" t="str">
         <f aca="false">I7</f>
         <v>Mounted. All torqued.</v>
       </c>
-      <c r="J37" s="19" t="n">
+      <c r="J37" s="18" t="n">
         <f aca="false">J7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="str">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="18" t="str">
         <f aca="false">A8</f>
         <v>NB7_1</v>
       </c>
-      <c r="B38" s="19" t="str">
+      <c r="B38" s="18" t="str">
         <f aca="false">B8</f>
         <v>BP3</v>
       </c>
-      <c r="C38" s="19" t="str">
+      <c r="C38" s="18" t="str">
         <f aca="false">C8</f>
         <v>384.35–391.65</v>
       </c>
-      <c r="D38" s="19" t="n">
+      <c r="D38" s="18" t="n">
         <f aca="false">D8</f>
         <v>388</v>
       </c>
-      <c r="E38" s="19" t="n">
+      <c r="E38" s="18" t="n">
         <f aca="false">E8</f>
         <v>3</v>
       </c>
-      <c r="F38" s="19" t="n">
+      <c r="F38" s="18" t="n">
         <f aca="false">F8</f>
         <v>4</v>
       </c>
-      <c r="G38" s="19" t="str">
+      <c r="G38" s="18" t="str">
         <f aca="false">G8</f>
         <v>4 may be used instead of 3</v>
       </c>
-      <c r="H38" s="19" t="str">
+      <c r="H38" s="18" t="str">
         <f aca="false">H8</f>
         <v>FW2_2</v>
       </c>
-      <c r="I38" s="19" t="str">
+      <c r="I38" s="18" t="str">
         <f aca="false">I8</f>
         <v>Mounted. All torqued.</v>
       </c>
-      <c r="J38" s="19" t="n">
+      <c r="J38" s="18" t="n">
         <f aca="false">J8</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="str">
+      <c r="A39" s="18" t="str">
         <f aca="false">A9</f>
         <v>NB8_1</v>
       </c>
-      <c r="B39" s="19" t="str">
+      <c r="B39" s="18" t="str">
         <f aca="false">B9</f>
         <v>NB8</v>
       </c>
-      <c r="C39" s="19" t="str">
+      <c r="C39" s="18" t="str">
         <f aca="false">C9</f>
         <v>395.801–397.9</v>
       </c>
-      <c r="D39" s="19" t="n">
+      <c r="D39" s="18" t="n">
         <f aca="false">D9</f>
         <v>396.85</v>
       </c>
-      <c r="E39" s="19" t="n">
+      <c r="E39" s="18" t="n">
         <f aca="false">E9</f>
         <v>0</v>
       </c>
-      <c r="F39" s="19" t="n">
+      <c r="F39" s="18" t="n">
         <f aca="false">F9</f>
         <v>0</v>
       </c>
-      <c r="G39" s="19" t="n">
+      <c r="G39" s="18" t="n">
         <f aca="false">G9</f>
         <v>0</v>
       </c>
-      <c r="H39" s="19" t="str">
+      <c r="H39" s="18" t="str">
         <f aca="false">H9</f>
         <v>FW2_3</v>
       </c>
-      <c r="I39" s="19" t="str">
+      <c r="I39" s="18" t="str">
         <f aca="false">I9</f>
         <v>Mounted. All torqued.</v>
       </c>
-      <c r="J39" s="19" t="str">
+      <c r="J39" s="18" t="str">
         <f aca="false">J9</f>
         <v>NB8_3 cracked</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="str">
+      <c r="A40" s="18" t="str">
         <f aca="false">A19</f>
         <v>BB1_3</v>
       </c>
-      <c r="B40" s="19" t="n">
+      <c r="B40" s="18" t="n">
         <f aca="false">B19</f>
         <v>0</v>
       </c>
-      <c r="C40" s="19" t="n">
+      <c r="C40" s="18" t="n">
         <f aca="false">C19</f>
         <v>0</v>
       </c>
-      <c r="D40" s="19" t="n">
+      <c r="D40" s="18" t="n">
         <f aca="false">D19</f>
         <v>0</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19" t="n">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18" t="n">
         <f aca="false">F19</f>
         <v>4</v>
       </c>
-      <c r="G40" s="19" t="n">
+      <c r="G40" s="18" t="n">
         <f aca="false">G19</f>
         <v>0</v>
       </c>
-      <c r="H40" s="19" t="str">
+      <c r="H40" s="18" t="str">
         <f aca="false">H19</f>
         <v>FW2_4</v>
       </c>
-      <c r="I40" s="19" t="str">
+      <c r="I40" s="18" t="str">
         <f aca="false">I19</f>
         <v>Mounted. All torqued. Small crack on sun side.</v>
       </c>
-      <c r="J40" s="19" t="str">
+      <c r="J40" s="18" t="str">
         <f aca="false">J19</f>
         <v>BB1_1 cracked, BB1_2 cracked. Cracking at 20Ncm while placing on FW1.</v>
       </c>
@@ -7595,158 +7511,158 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="str">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="18" t="str">
         <f aca="false">A2</f>
         <v>NB1_1</v>
       </c>
-      <c r="B41" s="19" t="str">
+      <c r="B41" s="18" t="str">
         <f aca="false">B2</f>
         <v>BB1</v>
       </c>
-      <c r="C41" s="19" t="str">
+      <c r="C41" s="18" t="str">
         <f aca="false">C2</f>
         <v>200–235.8</v>
       </c>
-      <c r="D41" s="19" t="n">
+      <c r="D41" s="18" t="n">
         <f aca="false">D2</f>
         <v>214</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19" t="n">
+      <c r="E41" s="18"/>
+      <c r="F41" s="18" t="n">
         <f aca="false">F2</f>
         <v>6</v>
       </c>
-      <c r="G41" s="19" t="str">
+      <c r="G41" s="18" t="str">
         <f aca="false">G2</f>
         <v>No major variation of transmission with tilt.</v>
       </c>
-      <c r="H41" s="19" t="str">
+      <c r="H41" s="18" t="str">
         <f aca="false">H2</f>
         <v>FW2_5</v>
       </c>
-      <c r="I41" s="19" t="str">
+      <c r="I41" s="18" t="str">
         <f aca="false">I2</f>
         <v>Mounted. All torqued.</v>
       </c>
-      <c r="J41" s="19" t="str">
+      <c r="J41" s="18" t="str">
         <f aca="false">J2</f>
         <v>Bolt 6 changed to 14mm. </v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="str">
+      <c r="A42" s="18" t="str">
         <f aca="false">A12</f>
         <v>BB2_3</v>
       </c>
-      <c r="B42" s="19" t="str">
+      <c r="B42" s="18" t="str">
         <f aca="false">B12</f>
         <v>BP4</v>
       </c>
-      <c r="C42" s="19" t="str">
+      <c r="C42" s="18" t="str">
         <f aca="false">C12</f>
         <v>242–300</v>
       </c>
-      <c r="D42" s="19" t="n">
+      <c r="D42" s="18" t="n">
         <f aca="false">D12</f>
         <v>0</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="n">
+      <c r="E42" s="18"/>
+      <c r="F42" s="18" t="n">
         <f aca="false">F12</f>
         <v>6</v>
       </c>
-      <c r="G42" s="19" t="n">
+      <c r="G42" s="18" t="n">
         <f aca="false">G12</f>
         <v>0</v>
       </c>
-      <c r="H42" s="19" t="str">
+      <c r="H42" s="18" t="str">
         <f aca="false">H12</f>
         <v>FW2_6</v>
       </c>
-      <c r="I42" s="19" t="str">
+      <c r="I42" s="18" t="str">
         <f aca="false">I12</f>
         <v>Mounted. All torqued.</v>
       </c>
-      <c r="J42" s="19" t="n">
+      <c r="J42" s="18" t="n">
         <f aca="false">J12</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="str">
+      <c r="A43" s="18" t="str">
         <f aca="false">A13</f>
         <v>BB3_3</v>
       </c>
-      <c r="B43" s="19" t="str">
+      <c r="B43" s="18" t="str">
         <f aca="false">B13</f>
         <v>BP4</v>
       </c>
-      <c r="C43" s="19" t="str">
+      <c r="C43" s="18" t="str">
         <f aca="false">C13</f>
         <v>320–360</v>
       </c>
-      <c r="D43" s="19" t="n">
+      <c r="D43" s="18" t="n">
         <f aca="false">D13</f>
         <v>0</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19" t="n">
+      <c r="E43" s="18"/>
+      <c r="F43" s="18" t="n">
         <f aca="false">F13</f>
         <v>4</v>
       </c>
-      <c r="G43" s="19" t="n">
+      <c r="G43" s="18" t="n">
         <f aca="false">G13</f>
         <v>0</v>
       </c>
-      <c r="H43" s="19" t="str">
+      <c r="H43" s="18" t="str">
         <f aca="false">H13</f>
         <v>FW2_7</v>
       </c>
-      <c r="I43" s="19" t="str">
+      <c r="I43" s="18" t="str">
         <f aca="false">I13</f>
         <v>Mounted. All torqued.</v>
       </c>
-      <c r="J43" s="19" t="n">
+      <c r="J43" s="18" t="n">
         <f aca="false">J13</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="str">
+      <c r="A44" s="17" t="str">
         <f aca="false">A16</f>
         <v>BP2_8</v>
       </c>
-      <c r="B44" s="18" t="n">
+      <c r="B44" s="17" t="n">
         <f aca="false">B16</f>
         <v>0</v>
       </c>
-      <c r="C44" s="18" t="n">
+      <c r="C44" s="17" t="n">
         <f aca="false">C16</f>
         <v>0</v>
       </c>
-      <c r="D44" s="18" t="n">
+      <c r="D44" s="17" t="n">
         <f aca="false">D16</f>
         <v>0</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18" t="n">
+      <c r="E44" s="17"/>
+      <c r="F44" s="17" t="n">
         <f aca="false">F16</f>
         <v>6</v>
       </c>
-      <c r="G44" s="18" t="n">
+      <c r="G44" s="17" t="n">
         <f aca="false">G16</f>
         <v>0</v>
       </c>
-      <c r="H44" s="18" t="str">
+      <c r="H44" s="17" t="str">
         <f aca="false">H16</f>
         <v>FW2_8 (HOME)</v>
       </c>
-      <c r="I44" s="18" t="str">
+      <c r="I44" s="17" t="str">
         <f aca="false">I16</f>
         <v>Mounted. 1-3, 5-6 torqued. Point 4 thread damaged- No bolt at 4. Point 2 bolt very tight in helicoil, glued bolt head to lock ring.</v>
       </c>
-      <c r="J44" s="18" t="str">
+      <c r="J44" s="17" t="str">
         <f aca="false">J16</f>
         <v>BP2_6 cracked.
 Point 4 was slipping. Was anticipated to be a tool problem.</v>
@@ -7771,8 +7687,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7795,24 +7711,24 @@
   </sheetPr>
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="19" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="20" width="24.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="19" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="19" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="19" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="19" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="15" style="19" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
         <v>98</v>
       </c>
@@ -7847,7 +7763,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
         <v>108</v>
       </c>
@@ -7866,24 +7782,24 @@
       <c r="F2" s="25" t="n">
         <v>44860</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" s="35" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+    <row r="3" s="34" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="n">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="n">
         <v>44957</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7891,7 +7807,7 @@
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
-      <c r="K4" s="36"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27"/>
@@ -7899,25 +7815,25 @@
       <c r="C5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="39" t="n">
+      <c r="D6" s="38" t="n">
         <v>44812</v>
       </c>
-      <c r="E6" s="39" t="n">
+      <c r="E6" s="38" t="n">
         <v>44812</v>
       </c>
       <c r="F6" s="25" t="n">
         <v>44861</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
@@ -7936,24 +7852,24 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="8" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
+    <row r="8" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="32" t="n">
+      <c r="D8" s="31" t="n">
         <v>44825</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="31" t="n">
         <v>44825</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27"/>
@@ -7961,13 +7877,13 @@
       <c r="C9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="41" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="25" t="n">
@@ -7978,84 +7894,84 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="47" t="n">
+      <c r="D11" s="42" t="n">
         <v>44657</v>
       </c>
-      <c r="E11" s="47" t="n">
+      <c r="E11" s="42" t="n">
         <v>44657</v>
       </c>
-      <c r="F11" s="47" t="n">
+      <c r="F11" s="42" t="n">
         <v>44851</v>
       </c>
     </row>
-    <row r="12" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48" t="s">
+    <row r="12" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="50" t="n">
+      <c r="D12" s="45" t="n">
         <v>44658</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-    </row>
-    <row r="14" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="50" t="n">
+      <c r="D14" s="45" t="n">
         <v>44658</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="47" t="n">
+      <c r="D15" s="42" t="n">
         <v>44657</v>
       </c>
-      <c r="E15" s="47" t="n">
+      <c r="E15" s="42" t="n">
         <v>44657</v>
       </c>
-      <c r="F15" s="47" t="n">
+      <c r="F15" s="42" t="n">
         <v>44851</v>
       </c>
     </row>
@@ -8146,22 +8062,22 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="22" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
+    <row r="22" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27"/>
@@ -8169,16 +8085,16 @@
       <c r="C23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="42" t="n">
+      <c r="E24" s="20" t="n">
         <v>45241</v>
       </c>
       <c r="F24" s="25" t="n">
@@ -8186,77 +8102,77 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="41" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="48" t="s">
+    <row r="26" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="50" t="n">
+      <c r="D26" s="45" t="n">
         <v>44658</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-    </row>
-    <row r="29" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="48" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+    </row>
+    <row r="29" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="50" t="n">
+      <c r="D29" s="45" t="n">
         <v>44658</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="42" t="n">
+      <c r="E30" s="20" t="n">
         <v>45241</v>
       </c>
       <c r="F30" s="25" t="n">
@@ -8264,93 +8180,93 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-    </row>
-    <row r="34" s="59" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="56" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+    </row>
+    <row r="34" s="51" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="57" t="n">
+      <c r="D34" s="49" t="n">
         <v>44676</v>
       </c>
-      <c r="E34" s="57" t="n">
+      <c r="E34" s="49" t="n">
         <v>44676</v>
       </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58" t="s">
+      <c r="F34" s="49"/>
+      <c r="G34" s="50" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" s="35" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="48" t="s">
+    <row r="35" s="34" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34" t="s">
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" s="55" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="60" t="s">
+    <row r="36" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54" t="s">
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="28" t="s">
@@ -8361,7 +8277,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="28" t="s">
@@ -8372,39 +8288,39 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
     </row>
-    <row r="40" s="35" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="61" t="s">
+    <row r="40" s="34" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="32" t="n">
+      <c r="D40" s="31" t="n">
         <v>44956</v>
       </c>
-      <c r="E40" s="32" t="n">
+      <c r="E40" s="31" t="n">
         <v>44956</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54" t="s">
+      <c r="F40" s="23"/>
+      <c r="G40" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="63" t="s">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="53" t="s">
         <v>140</v>
       </c>
       <c r="D41" s="25" t="n">
@@ -8417,46 +8333,46 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" s="35" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="65" t="s">
+    <row r="42" s="34" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="32" t="n">
+      <c r="D42" s="31" t="n">
         <v>44956</v>
       </c>
-      <c r="E42" s="32" t="n">
+      <c r="E42" s="31" t="n">
         <v>44956</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34" t="s">
+      <c r="F42" s="32"/>
+      <c r="G42" s="33" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="57" t="s">
         <v>140</v>
       </c>
       <c r="D44" s="25" t="n">
@@ -8465,71 +8381,71 @@
       <c r="E44" s="25" t="n">
         <v>44841</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="69"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="69"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="53" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" s="35" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="70" t="s">
+    <row r="49" s="34" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="32" t="n">
+      <c r="D49" s="31" t="n">
         <v>44954</v>
       </c>
-      <c r="E49" s="32" t="n">
+      <c r="E49" s="31" t="n">
         <v>44954</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="34" t="s">
+      <c r="F49" s="32"/>
+      <c r="G49" s="33" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="53" t="s">
         <v>140</v>
       </c>
       <c r="D50" s="25" t="n">
@@ -8537,72 +8453,72 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="69"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="53" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" s="35" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="70" t="s">
+    <row r="55" s="34" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="32" t="n">
+      <c r="D55" s="31" t="n">
         <v>44954</v>
       </c>
-      <c r="E55" s="32" t="n">
+      <c r="E55" s="31" t="n">
         <v>44954</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="34" t="s">
+      <c r="F55" s="32"/>
+      <c r="G55" s="33" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="69" t="s">
+      <c r="A56" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="53" t="s">
         <v>140</v>
       </c>
       <c r="D56" s="25" t="s">
@@ -8616,13 +8532,13 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="53" t="s">
         <v>140</v>
       </c>
       <c r="D57" s="20" t="s">
@@ -8630,28 +8546,28 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="69"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-    </row>
-    <row r="59" s="35" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="40" t="s">
+      <c r="A58" s="58"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+    </row>
+    <row r="59" s="34" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="32" t="n">
+      <c r="D59" s="31" t="n">
         <v>44955</v>
       </c>
-      <c r="E59" s="32" t="n">
+      <c r="E59" s="31" t="n">
         <v>44955</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="54" t="s">
+      <c r="F59" s="23"/>
+      <c r="G59" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8665,27 +8581,26 @@
       <c r="C60" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-    </row>
-    <row r="61" s="59" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37" t="s">
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" s="51" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="57" t="n">
+      <c r="D61" s="49" t="n">
         <v>44706</v>
       </c>
-      <c r="E61" s="57" t="n">
+      <c r="E61" s="49" t="n">
         <v>44706</v>
       </c>
-      <c r="F61" s="57"/>
-      <c r="G61" s="71"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="60"/>
     </row>
     <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="27" t="s">
@@ -8720,13 +8635,13 @@
       <c r="C65" s="28"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="69" t="s">
+      <c r="A66" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="53" t="s">
         <v>140</v>
       </c>
       <c r="D66" s="20" t="n">
@@ -8736,90 +8651,90 @@
         <v>44813</v>
       </c>
     </row>
-    <row r="67" s="35" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="70" t="s">
+    <row r="67" s="34" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="32" t="n">
+      <c r="D67" s="31" t="n">
         <v>44955</v>
       </c>
-      <c r="E67" s="32" t="n">
+      <c r="E67" s="31" t="n">
         <v>44955</v>
       </c>
-      <c r="F67" s="33"/>
-      <c r="G67" s="34" t="s">
+      <c r="F67" s="32"/>
+      <c r="G67" s="33" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="64" t="s">
+      <c r="B68" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="69" t="s">
+      <c r="A69" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="C69" s="64" t="s">
+      <c r="C69" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="64" t="s">
+      <c r="C70" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="69"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="69"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="72"/>
+      <c r="D73" s="61"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="69" t="s">
+      <c r="A74" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="64" t="s">
+      <c r="B74" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="64" t="s">
+      <c r="C74" s="53" t="s">
         <v>140</v>
       </c>
       <c r="D74" s="20" t="n">
@@ -8830,46 +8745,46 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="69" t="s">
+      <c r="A75" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="72"/>
-    </row>
-    <row r="76" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="70" t="s">
+      <c r="D75" s="61"/>
+    </row>
+    <row r="76" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="66" t="s">
+      <c r="B76" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="66" t="s">
+      <c r="C76" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="32" t="n">
+      <c r="D76" s="31" t="n">
         <v>44955</v>
       </c>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33" t="s">
+      <c r="F76" s="32"/>
+      <c r="G76" s="32" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="D77" s="72"/>
+      <c r="D77" s="61"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8895,759 +8810,759 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="73" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="73" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="73" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="73" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="74" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="73" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="62" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="62" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="62" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="62" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="63" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="19" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="62" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="19" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="18.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="20" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="19" width="11.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="64" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" s="24" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="76" t="s">
+    <row r="2" s="24" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="71" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83" t="s">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="86" t="n">
+      <c r="D3" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="87" t="n">
+      <c r="E3" s="76" t="n">
         <v>44613</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90" t="n">
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="87" t="n">
+      <c r="I3" s="76" t="n">
         <v>44638</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="89"/>
+      <c r="K3" s="78"/>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="83" t="s">
+    <row r="4" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="92" t="n">
+      <c r="D4" s="81" t="n">
         <v>7</v>
       </c>
-      <c r="E4" s="93" t="n">
+      <c r="E4" s="82" t="n">
         <v>44613</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="94" t="n">
+      <c r="F4" s="80"/>
+      <c r="G4" s="83" t="n">
         <v>44812</v>
       </c>
-      <c r="H4" s="36" t="n">
+      <c r="H4" s="35" t="n">
         <v>10</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="95"/>
-      <c r="N4" s="96"/>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="97" t="s">
+      <c r="J4" s="80"/>
+      <c r="K4" s="84"/>
+      <c r="N4" s="85"/>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="86" t="n">
+      <c r="D5" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="87" t="n">
+      <c r="E5" s="76" t="n">
         <v>44629</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="94" t="n">
+      <c r="F5" s="77"/>
+      <c r="G5" s="83" t="n">
         <v>44657</v>
       </c>
-      <c r="H5" s="90" t="n">
+      <c r="H5" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="I5" s="87" t="n">
+      <c r="I5" s="76" t="n">
         <v>44636</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="94" t="n">
+      <c r="K5" s="83" t="n">
         <v>44658</v>
       </c>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="83" t="s">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="86" t="n">
+      <c r="D6" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="87" t="n">
+      <c r="E6" s="76" t="n">
         <v>44629</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="94" t="n">
+      <c r="F6" s="77"/>
+      <c r="G6" s="83" t="n">
         <v>44657</v>
       </c>
-      <c r="H6" s="90" t="n">
+      <c r="H6" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="87" t="n">
+      <c r="I6" s="76" t="n">
         <v>44636</v>
       </c>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="K6" s="94" t="n">
+      <c r="K6" s="83" t="n">
         <v>44658</v>
       </c>
       <c r="N6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="86" t="n">
+      <c r="D7" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="87" t="n">
+      <c r="E7" s="76" t="n">
         <v>44613</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="94" t="n">
+      <c r="F7" s="77"/>
+      <c r="G7" s="83" t="n">
         <v>44813</v>
       </c>
-      <c r="H7" s="73" t="n">
+      <c r="H7" s="62" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="89"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
       <c r="N7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="86" t="n">
+      <c r="D8" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="87" t="n">
+      <c r="E8" s="76" t="n">
         <v>44613</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90" t="n">
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="87" t="n">
+      <c r="I8" s="76" t="n">
         <v>44636</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="94" t="n">
+      <c r="J8" s="77"/>
+      <c r="K8" s="83" t="n">
         <v>44658</v>
       </c>
       <c r="N8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="86" t="n">
+      <c r="D9" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="87" t="n">
+      <c r="E9" s="76" t="n">
         <v>44613</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="90" t="n">
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="87" t="n">
+      <c r="I9" s="76" t="n">
         <v>44636</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="94" t="n">
+      <c r="J9" s="77"/>
+      <c r="K9" s="83" t="n">
         <v>44658</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="83" t="s">
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="90" t="s">
+      <c r="H10" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="87" t="s">
+      <c r="I10" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="J10" s="88" t="s">
+      <c r="J10" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="K10" s="89"/>
-      <c r="M10" s="101"/>
+      <c r="K10" s="78"/>
+      <c r="M10" s="90"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="87" t="n">
+      <c r="E11" s="76" t="n">
         <v>44629</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90" t="s">
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="87" t="n">
+      <c r="I11" s="76" t="n">
         <v>44637</v>
       </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="86" t="n">
+      <c r="D12" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="87" t="n">
+      <c r="E12" s="76" t="n">
         <v>44616</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90" t="n">
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="105" t="n">
+      <c r="I12" s="94" t="n">
         <v>44638</v>
       </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-    </row>
-    <row r="13" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="102" t="s">
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
+    </row>
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="86" t="n">
+      <c r="D13" s="75" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="87" t="n">
+      <c r="E13" s="76" t="n">
         <v>44616</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="106" t="s">
+      <c r="F13" s="77"/>
+      <c r="G13" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="H13" s="90" t="n">
+      <c r="H13" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="I13" s="87" t="n">
+      <c r="I13" s="76" t="n">
         <v>44637</v>
       </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-    </row>
-    <row r="14" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83" t="s">
+      <c r="J13" s="77"/>
+      <c r="K13" s="78"/>
+    </row>
+    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="86" t="n">
+      <c r="D14" s="75" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="100" t="s">
+      <c r="F14" s="77"/>
+      <c r="G14" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="90" t="n">
+      <c r="H14" s="79" t="n">
         <v>6</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="78"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="94" t="n">
+      <c r="F15" s="77"/>
+      <c r="G15" s="83" t="n">
         <v>44813</v>
       </c>
-      <c r="H15" s="86" t="n">
+      <c r="H15" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="93" t="n">
+      <c r="I15" s="82" t="n">
         <v>44629</v>
       </c>
-      <c r="J15" s="88" t="s">
+      <c r="J15" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="K15" s="89"/>
-    </row>
-    <row r="16" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="109" t="s">
+      <c r="K15" s="78"/>
+    </row>
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="112" t="n">
+      <c r="D16" s="101" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="113"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="115" t="s">
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="116" t="s">
+      <c r="H16" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="117"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="106"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="118"/>
-    </row>
-    <row r="18" s="124" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="119" t="s">
+      <c r="J17" s="107"/>
+    </row>
+    <row r="18" s="113" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="122"/>
-    </row>
-    <row r="19" s="124" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="125" t="s">
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="111"/>
+    </row>
+    <row r="19" s="113" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="94" t="s">
+      <c r="D19" s="112"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="128"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="122"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="111"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="64" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="129" t="s">
+      <c r="G23" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="131" t="s">
+      <c r="I23" s="120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="132" t="s">
+      <c r="G24" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="133" t="n">
+      <c r="H24" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="I24" s="134" t="n">
+      <c r="I24" s="123" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="132" t="s">
+      <c r="G25" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="133"/>
-      <c r="I25" s="135" t="n">
+      <c r="H25" s="122"/>
+      <c r="I25" s="124" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="132" t="s">
+      <c r="G26" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="H26" s="133"/>
-      <c r="I26" s="134"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="123"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="136"/>
-      <c r="G27" s="132" t="s">
+      <c r="A27" s="125"/>
+      <c r="G27" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="133" t="n">
+      <c r="H27" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="I27" s="134" t="n">
+      <c r="I27" s="123" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="132" t="s">
+      <c r="G28" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="133" t="n">
+      <c r="H28" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="I28" s="134" t="n">
+      <c r="I28" s="123" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="132" t="s">
+      <c r="G29" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="133"/>
-      <c r="I29" s="134" t="n">
+      <c r="H29" s="122"/>
+      <c r="I29" s="123" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="132" t="s">
+      <c r="G30" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="133" t="n">
+      <c r="H30" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="134" t="n">
+      <c r="I30" s="123" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="132" t="s">
+      <c r="G31" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="133" t="n">
+      <c r="H31" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="I31" s="134" t="n">
+      <c r="I31" s="123" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="132" t="s">
+      <c r="G32" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="137" t="s">
+      <c r="H32" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="I32" s="134" t="s">
+      <c r="I32" s="123" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="132" t="s">
+      <c r="G33" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="137" t="s">
+      <c r="H33" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="I33" s="134" t="s">
+      <c r="I33" s="123" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="132" t="s">
+      <c r="G34" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="133" t="n">
+      <c r="H34" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="I34" s="134" t="n">
+      <c r="I34" s="123" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="132" t="s">
+      <c r="G35" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="H35" s="133" t="n">
+      <c r="H35" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="I35" s="134" t="n">
+      <c r="I35" s="123" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="132" t="s">
+      <c r="G36" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="H36" s="138"/>
-      <c r="I36" s="139"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="128"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="132" t="s">
+      <c r="G37" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="133" t="n">
+      <c r="H37" s="122" t="n">
         <v>8</v>
       </c>
-      <c r="I37" s="134" t="n">
+      <c r="I37" s="123" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="132" t="s">
+      <c r="G38" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="H38" s="133" t="n">
+      <c r="H38" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="I38" s="134" t="n">
+      <c r="I38" s="123" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="140" t="s">
+      <c r="G39" s="129" t="s">
         <v>198</v>
       </c>
-      <c r="H39" s="141" t="n">
+      <c r="H39" s="130" t="n">
         <v>2</v>
       </c>
-      <c r="I39" s="142" t="s">
+      <c r="I39" s="131" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G41" s="143" t="s">
+      <c r="G41" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="H41" s="144" t="s">
+      <c r="H41" s="133" t="s">
         <v>200</v>
       </c>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="73"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="62"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G42" s="129" t="s">
+      <c r="G42" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="H42" s="146" t="s">
+      <c r="H42" s="135" t="s">
         <v>201</v>
       </c>
-      <c r="I42" s="130" t="s">
+      <c r="I42" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="J42" s="131" t="s">
+      <c r="J42" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="K42" s="73"/>
+      <c r="K42" s="62"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="132" t="s">
+      <c r="G43" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="H43" s="147" t="s">
+      <c r="H43" s="136" t="s">
         <v>170</v>
       </c>
-      <c r="I43" s="133" t="n">
+      <c r="I43" s="122" t="n">
         <v>7</v>
       </c>
-      <c r="J43" s="148" t="s">
+      <c r="J43" s="137" t="s">
         <v>203</v>
       </c>
-      <c r="K43" s="73"/>
+      <c r="K43" s="62"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="132" t="s">
+      <c r="G44" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="147" t="s">
+      <c r="H44" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="I44" s="133" t="n">
+      <c r="I44" s="122" t="n">
         <v>3</v>
       </c>
-      <c r="J44" s="149" t="n">
+      <c r="J44" s="138" t="n">
         <v>2</v>
       </c>
-      <c r="K44" s="73"/>
+      <c r="K44" s="62"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="140" t="s">
+      <c r="G45" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="H45" s="150" t="s">
+      <c r="H45" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="I45" s="141" t="n">
+      <c r="I45" s="130" t="n">
         <v>1</v>
       </c>
-      <c r="J45" s="151" t="n">
+      <c r="J45" s="140" t="n">
         <v>3</v>
       </c>
-      <c r="K45" s="73"/>
+      <c r="K45" s="62"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
